--- a/test-fts/ig/CodeSystem-ror-include-associated-data-code-system.xlsx
+++ b/test-fts/ig/CodeSystem-ror-include-associated-data-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T09:26:36+00:00</t>
+    <t>2024-09-12T11:59:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
